--- a/MainTop/10.06.2025/print.xlsx
+++ b/MainTop/10.06.2025/print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\10.06.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978E3118-D629-4FAC-893C-EE265F721F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7BA0DF-E972-4C81-B845-7546BE8499C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+      <selection activeCell="T94" sqref="T94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,7 +6144,7 @@
         <v>185</v>
       </c>
       <c r="S84">
-        <f t="shared" ref="S67:S96" si="4">O84/4</f>
+        <f t="shared" ref="S84:S96" si="4">O84/4</f>
         <v>12</v>
       </c>
     </row>
@@ -6817,72 +6817,6 @@
       <c r="S95">
         <f>O95/2</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <f t="shared" ref="B96:P96" si="5">SUM(B2:B95)</f>
-        <v>100</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="5"/>
-        <v>149</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="N96">
-        <f>SUM(N2:N95)</f>
-        <v>1098</v>
-      </c>
-      <c r="O96">
-        <f>SUM(O2:O95)</f>
-        <v>1228</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="4"/>
-        <v>307</v>
       </c>
     </row>
   </sheetData>
